--- a/data/trans_dic/P31_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza menos de 3 dias de caminata o cualquier otra actividad</t>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +601,72 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,17 +705,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,42 +725,72 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>13,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,18%</t>
+          <t>15,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>28,71%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,92%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>17,98%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>19,48%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 15,32</t>
+          <t>6,06; 16,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 16,19</t>
+          <t>5,94; 16,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 15,64</t>
+          <t>4,24; 15,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,14; 11,35</t>
+          <t>2,65; 11,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 20,85</t>
+          <t>7,11; 21,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 38,9</t>
+          <t>1,81; 10,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 19,7</t>
+          <t>10,12; 22,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,36; 27,42</t>
+          <t>22,25; 36,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,06; 16,67</t>
+          <t>10,41; 22,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>15,65; 25,13</t>
+          <t>13,35; 28,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 15,5</t>
+          <t>10,87; 25,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,44; 16,82</t>
+          <t>11,9; 24,15</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 17,59</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 24,64</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>8,81; 17,04</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,51; 16,97</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,61; 21,14</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 15,63</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>18,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,73%</t>
+          <t>13,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,12%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>30,76%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>30,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>20,51%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>21,99%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>26,41%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>21,07%</t>
+          <t>23,4%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>22,73%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,73%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>21,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>17,09%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>19,76%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,57; 39,0</t>
+          <t>17,31; 37,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,74; 31,32</t>
+          <t>15,93; 30,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 32,47</t>
+          <t>11,64; 32,47</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,06; 20,46</t>
+          <t>8,63; 21,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 23,56</t>
+          <t>9,86; 24,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,05; 36,96</t>
+          <t>7,12; 18,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,39; 29,85</t>
+          <t>11,72; 23,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,2; 27,45</t>
+          <t>24,8; 36,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 28,68</t>
+          <t>18,79; 30,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,88; 31,05</t>
+          <t>15,06; 27,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,39; 28,03</t>
+          <t>17,49; 30,84</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 22,22</t>
+          <t>17,03; 29,26</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>16,85; 29,42</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 30,79</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>16,35; 28,54</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12,57; 21,77</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>15,08; 24,74</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>13,03; 21,56</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,13%</t>
+          <t>21,12%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>20,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25,43%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>36,72%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>30,61%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>30,07%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>29,19%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>29,09%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>25,99%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>25,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 33,29</t>
+          <t>14,77; 29,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,54; 27,62</t>
+          <t>15,83; 26,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,45; 28,19</t>
+          <t>16,27; 28,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,54; 26,52</t>
+          <t>15,85; 26,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,56; 30,66</t>
+          <t>11,11; 24,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,69; 41,69</t>
+          <t>17,45; 30,73</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 35,6</t>
+          <t>20,99; 30,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,54; 36,17</t>
+          <t>31,79; 41,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,02; 29,75</t>
+          <t>26,27; 35,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,45; 33,12</t>
+          <t>24,15; 36,48</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 29,46</t>
+          <t>20,11; 32,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>21,04; 29,24</t>
+          <t>22,99; 33,18</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>19,65; 27,91</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>25,48; 32,98</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>22,46; 29,94</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>21,15; 29,18</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>16,96; 26,22</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>21,54; 30,4</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1305,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,15%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,42 +1325,72 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>21,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,31%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>27,57%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,95%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>18,69%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>27,65%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>27,59%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>26,78%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>25,64%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,56; 20,03</t>
+          <t>10,7; 20,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,6; 29,4</t>
+          <t>19,11; 28,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,58; 33,64</t>
+          <t>22,29; 34,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,27; 29,92</t>
+          <t>18,34; 30,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 27,14</t>
+          <t>15,89; 26,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,65; 36,25</t>
+          <t>10,02; 19,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,92; 32,13</t>
+          <t>17,44; 27,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>24,09; 36,37</t>
+          <t>26,56; 36,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,25; 21,89</t>
+          <t>23,29; 32,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,33; 31,28</t>
+          <t>23,85; 36,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,96; 31,15</t>
+          <t>24,93; 36,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,83; 31,55</t>
+          <t>22,69; 32,32</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15,68; 22,6</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>24,54; 31,39</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 31,47</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>22,79; 31,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>21,67; 29,8</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 23,84</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,77%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>20,72%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>24,02%</t>
+          <t>24,01%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>25,21%</t>
+          <t>28,45%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>29,56%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>30,31%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,12%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>25,22%</t>
+          <t>30,66%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>25,59%</t>
+          <t>32,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>18,92%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>25,41%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>19,34%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 18,09</t>
+          <t>8,43; 17,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 26,11</t>
+          <t>16,16; 25,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 25,95</t>
+          <t>15,56; 25,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,12; 30,74</t>
+          <t>18,0; 30,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,7; 31,29</t>
+          <t>22,16; 35,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,73; 36,02</t>
+          <t>11,91; 21,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>25,05; 35,97</t>
+          <t>19,7; 31,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>24,83; 37,47</t>
+          <t>22,84; 33,96</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,74</t>
+          <t>24,52; 35,56</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>21,58; 29,5</t>
+          <t>24,25; 36,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 29,37</t>
+          <t>26,86; 39,39</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,16; 32,04</t>
+          <t>15,4; 29,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>15,3; 23,09</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>20,95; 28,35</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>21,73; 29,32</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>23,41; 32,49</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>25,99; 35,5</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>15,72; 24,09</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>28,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,69%</t>
+          <t>17,67%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>38,04%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>41,01%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>34,12%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>33,73%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>40,1%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>38,42%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>26,64%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>34,49%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>27,75%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>32,41%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>31,38%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>22,71%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 38,31</t>
+          <t>18,15; 35,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,62; 39,72</t>
+          <t>21,33; 36,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,25; 25,6</t>
+          <t>11,69; 24,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>14,71; 29,93</t>
+          <t>14,64; 29,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,04; 44,26</t>
+          <t>14,78; 29,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,24; 48,02</t>
+          <t>10,93; 25,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,49; 40,81</t>
+          <t>34,55; 48,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>30,77; 48,91</t>
+          <t>33,69; 46,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>28,79; 39,36</t>
+          <t>28,48; 42,86</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>31,49; 42,26</t>
+          <t>31,43; 49,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,31; 31,97</t>
+          <t>29,58; 46,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>26,74; 38,39</t>
+          <t>19,12; 35,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>29,01; 40,18</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>30,58; 40,27</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 33,01</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>26,33; 38,48</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>25,74; 37,28</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>17,64; 28,96</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,55%</t>
+          <t>21,11%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,63%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>27,34%</t>
+          <t>25,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,44%</t>
+          <t>33,19%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27,77%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>23,45%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>24,55%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>27,29%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>23,76%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>24,18%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>24,22%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>19,95%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 22,96</t>
+          <t>16,06; 22,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,15; 24,42</t>
+          <t>18,89; 23,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,37</t>
+          <t>16,64; 22,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 21,28</t>
+          <t>16,09; 21,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,22; 27,01</t>
+          <t>16,93; 22,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>31,38; 36,26</t>
+          <t>12,91; 18,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,25; 29,61</t>
+          <t>22,8; 27,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>26,32; 32,56</t>
+          <t>30,71; 35,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,44; 24,28</t>
+          <t>25,5; 30,19</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>26,08; 29,6</t>
+          <t>26,44; 32,4</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>21,71; 25,2</t>
+          <t>26,31; 32,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>22,15; 26,34</t>
+          <t>22,19; 27,79</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 24,13</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>25,57; 29,06</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>21,92; 25,57</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>22,33; 26,08</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 26,22</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>18,3; 21,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza menos de 3 dias de caminata y que no realiza cualquier otra actividad (ligera, moderada ni deportiva) (tasa de respuesta: 99,64%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53390</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>54554</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>45243</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2346</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5350</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24919</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72927</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>147825</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80085</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>7443</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6469</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>85810</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>126317</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>202380</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>125328</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>9789</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>11820</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>110728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30410; 82116</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31146; 87243</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21653; 81114</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1115; 4985</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2903; 8803</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8512; 50212</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>47436; 103215</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114566; 189727</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>53524; 115906</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4908; 10396</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3982; 9303</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56815; 115242</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>90711; 170762</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>159104; 256080</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>90174; 174504</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>6712; 13385</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>8223; 16377</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>76588; 148215</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>150408</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>122830</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>111576</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7150</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>68390</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>86982</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>155802</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>124196</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>9547</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>10370</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>114805</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>237390</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>278632</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>235772</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16333</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17520</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>183195</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>99255; 216378</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>90103; 174905</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69172; 193005</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4230; 10359</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4373; 10682</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41311; 108177</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60823; 120780</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>125984; 187140</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>97233; 156598</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7009; 12721</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>7752; 13672</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>86010; 147771</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>184048; 321366</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>229981; 330512</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>181750; 317314</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12015; 20809</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13371; 21940</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>141404; 233957</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>144928</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>143281</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>143400</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12447</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9887</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>156912</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>181191</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>263786</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>218890</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16127</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>13504</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>198112</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>326119</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>407067</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>362291</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>28573</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>23391</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>355024</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>101410; 199560</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>107778; 181720</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>110676; 195908</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9502; 16146</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6611; 14716</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>118482; 208581</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>149519; 219211</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>228408; 300300</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>187525; 252447</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>12905; 19491</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>10453; 16870</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>164945; 238072</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>274864; 390387</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>356520; 461475</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>313034; 417276</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>23981; 33081</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>18911; 29230</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>300739; 424416</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>97218</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153354</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>174586</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>13875</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>11564</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>90473</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>151839</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>211463</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>183745</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>15519</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>15682</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>178265</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>249057</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>364818</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>358331</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>29394</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>27246</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>268739</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>69259; 133167</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>123454; 187175</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>142448; 217279</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>10633; 17665</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>8727; 14766</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>65958; 127222</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>119601; 187974</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>178840; 244725</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>153664; 213800</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>12354; 18739</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>12796; 18967</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>150089; 213739</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>208962; 301248</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>323720; 414101</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>314511; 408749</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>25010; 34507</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>23030; 31670</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>228206; 314552</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>61006</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>104665</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>100213</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10620</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12403</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>81338</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>129065</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>142865</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>156055</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>14813</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>14684</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>114410</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>190071</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>247529</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>256268</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>25432</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>27087</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>195748</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41730; 86716</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>81417; 130658</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>76765; 126198</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7959; 13617</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9659; 15303</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>58972; 108839</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>100289; 159340</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>114936; 170868</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>126318; 183195</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>11714; 17595</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12063; 17690</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>79611; 153119</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>153648; 231875</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>210946; 285469</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>219172; 295678</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>21660; 30064</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>23002; 31419</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>159041; 243811</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>141262</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>149522</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>94075</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9991</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9038</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>99718</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>294332</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>277460</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>245908</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25409</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>23241</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>195689</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>435594</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>426982</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>339983</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>35399</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>32278</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>295407</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>98956; 194724</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>112883; 193673</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>62216; 130562</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6714; 13624</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>6261; 12419</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>61904; 143816</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>247938; 347764</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>234100; 322323</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>197265; 296840</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>19914; 31566</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>17893; 28306</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>140485; 264007</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>366377; 507482</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>374314; 492929</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>279795; 404443</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>28758; 42020</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>26481; 38350</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>229436; 376760</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>256.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>542.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>461.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>519.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>717.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>492.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>473.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>486.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>648212</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>728205</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>669095</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>56064</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>55391</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>521750</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>916335</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1199203</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1008878</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>88857</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>83951</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>887090</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1564547</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1927407</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1677973</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>144921</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>139342</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1408841</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>553920; 760784</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>651462; 819288</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>574074; 766711</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>48135; 63766</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>48342; 63750</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>445317; 622407</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>823699; 1003546</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>1109440; 1287234</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>921223; 1090620</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>79371; 97269</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>76220; 93508</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>801672; 1003921</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1435923; 1704071</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1805641; 2052084</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1548202; 1806062</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>133811; 156275</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>127838; 150811</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1292070; 1550854</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
